--- a/dados/previsao_precos.xlsx
+++ b/dados/previsao_precos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\asotech\atomo\pythonProject\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\asotech\portfolio_atomo\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AEDE9F-4A9B-4BD4-B77C-EEE9A664FFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C00B43-75B7-4F09-99BD-6D890E190669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>valor</t>
+    <t>mes</t>
   </si>
   <si>
-    <t>mes</t>
+    <t>cenario1</t>
+  </si>
+  <si>
+    <t>cenario2</t>
   </si>
 </sst>
 </file>
@@ -349,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,300 +363,224 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45292</v>
+        <v>45444</v>
       </c>
       <c r="B2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="C2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45323</v>
+        <v>45474</v>
       </c>
       <c r="B3">
+        <v>182</v>
+      </c>
+      <c r="C3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B4">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B4">
+      <c r="C4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B5">
+        <v>176</v>
+      </c>
+      <c r="C5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B6">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45383</v>
-      </c>
-      <c r="B5">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45444</v>
+        <v>45597</v>
       </c>
       <c r="B7">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="C7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45474</v>
+        <v>45627</v>
       </c>
       <c r="B8">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45505</v>
+        <v>45658</v>
       </c>
       <c r="B9">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45536</v>
+        <v>45689</v>
       </c>
       <c r="B10">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45566</v>
+        <v>45717</v>
       </c>
       <c r="B11">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="C11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45597</v>
+        <v>45748</v>
       </c>
       <c r="B12">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45627</v>
+        <v>45778</v>
       </c>
       <c r="B13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45658</v>
+        <v>45809</v>
       </c>
       <c r="B14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45689</v>
+        <v>45839</v>
       </c>
       <c r="B15">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="B16">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45748</v>
+        <v>45901</v>
       </c>
       <c r="B17">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="C17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="B18">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45809</v>
+        <v>45962</v>
       </c>
       <c r="B19">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45839</v>
+        <v>45992</v>
       </c>
       <c r="B20">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45870</v>
-      </c>
-      <c r="B21">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45901</v>
-      </c>
-      <c r="B22">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45931</v>
-      </c>
-      <c r="B23">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45962</v>
-      </c>
-      <c r="B24">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B26">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>46054</v>
-      </c>
-      <c r="B27">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>46082</v>
-      </c>
-      <c r="B28">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>46113</v>
-      </c>
-      <c r="B29">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>46143</v>
-      </c>
-      <c r="B30">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>46174</v>
-      </c>
-      <c r="B31">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>46204</v>
-      </c>
-      <c r="B32">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>46235</v>
-      </c>
-      <c r="B33">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>46266</v>
-      </c>
-      <c r="B34">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>46296</v>
-      </c>
-      <c r="B35">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>46327</v>
-      </c>
-      <c r="B36">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>46357</v>
-      </c>
-      <c r="B37">
-        <v>160</v>
+      <c r="C20">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/dados/previsao_precos.xlsx
+++ b/dados/previsao_precos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\asotech\portfolio_atomo\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C00B43-75B7-4F09-99BD-6D890E190669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801FB6C8-3FCD-4D34-AE44-B8AD41D25650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="435" windowWidth="20910" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>mes</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>cenario2</t>
+  </si>
+  <si>
+    <t>cenario3</t>
   </si>
 </sst>
 </file>
@@ -352,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,7 +366,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,8 +376,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45444</v>
       </c>
@@ -384,8 +390,11 @@
       <c r="C2">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45474</v>
       </c>
@@ -395,8 +404,11 @@
       <c r="C3">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45505</v>
       </c>
@@ -406,8 +418,11 @@
       <c r="C4">
         <v>176</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45536</v>
       </c>
@@ -417,8 +432,11 @@
       <c r="C5">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45566</v>
       </c>
@@ -428,8 +446,11 @@
       <c r="C6">
         <v>170</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45597</v>
       </c>
@@ -439,8 +460,11 @@
       <c r="C7">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45627</v>
       </c>
@@ -450,138 +474,45 @@
       <c r="C8">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45658</v>
-      </c>
-      <c r="B9">
-        <v>160</v>
-      </c>
-      <c r="C9">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45689</v>
-      </c>
-      <c r="B10">
-        <v>160</v>
-      </c>
-      <c r="C10">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45717</v>
-      </c>
-      <c r="B11">
-        <v>152</v>
-      </c>
-      <c r="C11">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45748</v>
-      </c>
-      <c r="B12">
-        <v>153</v>
-      </c>
-      <c r="C12">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45778</v>
-      </c>
-      <c r="B13">
-        <v>151</v>
-      </c>
-      <c r="C13">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45809</v>
-      </c>
-      <c r="B14">
+      <c r="D8">
         <v>150</v>
       </c>
-      <c r="C14">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45839</v>
-      </c>
-      <c r="B15">
-        <v>135</v>
-      </c>
-      <c r="C15">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45870</v>
-      </c>
-      <c r="B16">
-        <v>140</v>
-      </c>
-      <c r="C16">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45901</v>
-      </c>
-      <c r="B17">
-        <v>146</v>
-      </c>
-      <c r="C17">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45931</v>
-      </c>
-      <c r="B18">
-        <v>140</v>
-      </c>
-      <c r="C18">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45962</v>
-      </c>
-      <c r="B19">
-        <v>150</v>
-      </c>
-      <c r="C19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B20">
-        <v>150</v>
-      </c>
-      <c r="C20">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
